--- a/Data/aearep-713/candidatepackages.xlsx
+++ b/Data/aearep-713/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -52,9 +52,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-713/118345</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-713/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>aslund_review_tables_3_5.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>config2.do</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>us_states_gini.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -148,7 +139,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -160,7 +151,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -172,7 +163,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -184,7 +175,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -196,10 +187,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.12264462560415268</v>
       </c>
       <c r="D6"/>
     </row>
@@ -208,10 +199,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C7">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D7"/>
     </row>
@@ -221,7 +212,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -229,7 +220,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -237,7 +228,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -245,7 +236,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -253,7 +244,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -261,7 +252,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -269,7 +260,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -277,7 +268,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -285,23 +276,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
